--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiend\Work\serial_csv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCC776F-52C4-4C39-8344-1319A8EA5E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E91C9-D807-468C-B3D2-AFB4213FB621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{059B8D8B-1D02-4FA5-A430-BE133026E2A5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Mixed Types</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>serial_csv</t>
+  </si>
+  <si>
+    <t>csv_writer</t>
+  </si>
+  <si>
+    <t>fast_csv</t>
   </si>
 </sst>
 </file>
@@ -280,10 +286,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3803</c:v>
+                  <c:v>3470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3937</c:v>
+                  <c:v>3403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,11 +301,114 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>csv_writer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$D$3,Tabelle1!$D$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69F0-4706-AF6A-579DC5338F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -392,15 +501,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$4</c:f>
+              <c:f>Tabelle1!$E$3:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>980</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>955</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,7 +743,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -846,10 +955,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7827</c:v>
+                  <c:v>7189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8312</c:v>
+                  <c:v>7714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,11 +970,114 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fast_csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$D$7,Tabelle1!$D$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DF5-4B6E-A1AD-8994D43456E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -958,15 +1170,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$7:$D$8</c:f>
+              <c:f>Tabelle1!$E$7:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3613</c:v>
+                  <c:v>1709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3162</c:v>
+                  <c:v>1832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1412,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2320,15 +2532,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>747714</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>73816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>150016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2355,16 +2567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355826</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>344102</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>73820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>713014</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>701290</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>150020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2689,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA93F1DC-6F9A-4264-825E-101C4D85880A}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,64 +2912,82 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3803</v>
+        <v>3470</v>
       </c>
       <c r="D3">
-        <v>980</v>
+        <v>3157</v>
+      </c>
+      <c r="E3">
+        <v>890</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3937</v>
+        <v>3403</v>
       </c>
       <c r="D4">
-        <v>955</v>
+        <v>3250</v>
+      </c>
+      <c r="E4">
+        <v>824</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7827</v>
+        <v>7189</v>
       </c>
       <c r="D7">
-        <v>3613</v>
+        <v>1824</v>
+      </c>
+      <c r="E7">
+        <v>1709</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>8312</v>
+        <v>7714</v>
       </c>
       <c r="D8">
-        <v>3162</v>
+        <v>2368</v>
+      </c>
+      <c r="E8">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>

--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiend\Work\serial_csv\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien\Work\serial_csv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E91C9-D807-468C-B3D2-AFB4213FB621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C07EE-5A63-4B20-890B-3F2E843A1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{059B8D8B-1D02-4FA5-A430-BE133026E2A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{059B8D8B-1D02-4FA5-A430-BE133026E2A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Mixed Types</t>
-  </si>
-  <si>
-    <t>Strings Only</t>
   </si>
   <si>
     <t>csv</t>
@@ -53,6 +49,15 @@
   </si>
   <si>
     <t>fast_csv</t>
+  </si>
+  <si>
+    <t>jsonDecode*</t>
+  </si>
+  <si>
+    <t>jsonEncode*</t>
+  </si>
+  <si>
+    <t>Strings</t>
   </si>
 </sst>
 </file>
@@ -142,7 +147,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Encode List to CSV (lower is better)</a:t>
+              <a:t>List to CSV (lower is better)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -199,7 +204,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -274,7 +281,7 @@
                   <c:v>Mixed Types</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strings Only</c:v>
+                  <c:v>Strings</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -286,10 +293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3470</c:v>
+                  <c:v>7882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3403</c:v>
+                  <c:v>14869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,7 +323,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -389,10 +398,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3157</c:v>
+                  <c:v>6275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3250</c:v>
+                  <c:v>15330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -404,11 +413,117 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jsonEncode*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$E$3,Tabelle1!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6E6-4BE5-8E0D-B104FE50C98D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,22 +609,22 @@
                   <c:v>Mixed Types</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strings Only</c:v>
+                  <c:v>Strings</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$4</c:f>
+              <c:f>Tabelle1!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>890</c:v>
+                  <c:v>2174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>824</c:v>
+                  <c:v>4525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,22 +705,8 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -665,33 +766,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1599995375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -807,7 +881,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Decode CSV</a:t>
+              <a:t>CSV</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
@@ -868,7 +942,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -943,7 +1019,7 @@
                   <c:v>Mixed Types</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strings Only</c:v>
+                  <c:v>Strings</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -955,10 +1031,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7189</c:v>
+                  <c:v>8157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7714</c:v>
+                  <c:v>17140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +1061,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1058,10 +1136,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1824</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2368</c:v>
+                  <c:v>5775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,11 +1151,117 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jsonDecode*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Tabelle1!$E$7,Tabelle1!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B844-4AA9-BE71-50647B0099A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1163,22 +1347,22 @@
                   <c:v>Mixed Types</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Strings Only</c:v>
+                  <c:v>Strings</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$7:$E$8</c:f>
+              <c:f>Tabelle1!$F$7:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1709</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1832</c:v>
+                  <c:v>2571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1395,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1259,22 +1443,8 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1331,36 +1501,9 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1599998255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2531,13 +2674,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>747714</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>73816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>150016</xdr:rowOff>
@@ -2567,13 +2710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>344102</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>73820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>701290</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>150020</xdr:rowOff>
@@ -2901,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA93F1DC-6F9A-4264-825E-101C4D85880A}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,82 +3055,100 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3470</v>
+        <v>7882</v>
       </c>
       <c r="D3">
-        <v>3157</v>
+        <v>6275</v>
       </c>
       <c r="E3">
-        <v>890</v>
+        <v>2372</v>
+      </c>
+      <c r="F3">
+        <v>2174</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14869</v>
+      </c>
+      <c r="D4">
+        <v>15330</v>
+      </c>
+      <c r="E4">
+        <v>4221</v>
+      </c>
+      <c r="F4">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>3403</v>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
-      <c r="D4">
-        <v>3250</v>
+      <c r="E6" t="s">
+        <v>5</v>
       </c>
-      <c r="E4">
-        <v>824</v>
+      <c r="F6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7189</v>
+        <v>8157</v>
       </c>
       <c r="D7">
-        <v>1824</v>
+        <v>1728</v>
       </c>
       <c r="E7">
-        <v>1709</v>
+        <v>1539</v>
+      </c>
+      <c r="F7">
+        <v>869</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7714</v>
+        <v>17140</v>
       </c>
       <c r="D8">
-        <v>2368</v>
+        <v>5775</v>
       </c>
       <c r="E8">
-        <v>1832</v>
+        <v>3877</v>
+      </c>
+      <c r="F8">
+        <v>2571</v>
       </c>
     </row>
   </sheetData>

--- a/assets/benchmark.xlsx
+++ b/assets/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tien\Work\serial_csv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C07EE-5A63-4B20-890B-3F2E843A1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21108946-20BC-48AA-9A42-F4A2258034BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{059B8D8B-1D02-4FA5-A430-BE133026E2A5}"/>
   </bookViews>
@@ -293,10 +293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7882</c:v>
+                  <c:v>7.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14869</c:v>
+                  <c:v>14.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,10 +398,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6275</c:v>
+                  <c:v>6.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15330</c:v>
+                  <c:v>15.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,10 +504,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2372</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4221</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,10 +621,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2174</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4525</c:v>
+                  <c:v>4.5199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +728,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Time in ms</a:t>
+                  <a:t>Time in sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1031,10 +1031,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8157</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17140</c:v>
+                  <c:v>17.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,10 +1136,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1728</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5775</c:v>
+                  <c:v>5.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,10 +1242,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1539</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3877</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,10 +1359,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>869</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2571</c:v>
+                  <c:v>2.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,7 +1466,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Time in ms</a:t>
+                  <a:t>Time in sec</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3047,7 +3047,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7882</v>
+        <v>7.88</v>
       </c>
       <c r="D3">
-        <v>6275</v>
+        <v>6.27</v>
       </c>
       <c r="E3">
-        <v>2372</v>
+        <v>2.37</v>
       </c>
       <c r="F3">
-        <v>2174</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -3091,16 +3091,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>14869</v>
+        <v>14.86</v>
       </c>
       <c r="D4">
-        <v>15330</v>
+        <v>15.33</v>
       </c>
       <c r="E4">
-        <v>4221</v>
+        <v>4.22</v>
       </c>
       <c r="F4">
-        <v>4525</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8157</v>
+        <v>8.15</v>
       </c>
       <c r="D7">
-        <v>1728</v>
+        <v>1.72</v>
       </c>
       <c r="E7">
-        <v>1539</v>
+        <v>1.53</v>
       </c>
       <c r="F7">
-        <v>869</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -3139,16 +3139,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>17140</v>
+        <v>17.14</v>
       </c>
       <c r="D8">
-        <v>5775</v>
+        <v>5.77</v>
       </c>
       <c r="E8">
-        <v>3877</v>
+        <v>3.87</v>
       </c>
       <c r="F8">
-        <v>2571</v>
+        <v>2.57</v>
       </c>
     </row>
   </sheetData>
